--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2153593.653420392</v>
+        <v>2151049.878753733</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.5639921989975</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5639921989975</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>219.311552572426</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645087</v>
+        <v>12.83561175645086</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.5639921989983</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3620237587336</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.8004413602293</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>259.1050195542576</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.5639921989975</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928075</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072416</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>175.6585007465894</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>36.74813134253935</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704492</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>60.33996475238301</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.5639921989975</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5027935471124</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>59.80127191868286</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="W5" t="n">
-        <v>19.72100737961683</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634404</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.8563301598667</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>53.36410705248011</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>13.6218888375159</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>45.63574712322969</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>199.6452357812556</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>21.21812042899091</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560524</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560524</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="G16" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760358</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184504</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704672987</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174126</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016485</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>200.4120083539563</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>23.10998325716904</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611593575</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>240.06330988836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057036</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>36.43062059489704</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521.8034593030657</v>
+        <v>423.7494359980352</v>
       </c>
       <c r="C2" t="n">
-        <v>521.8034593030657</v>
+        <v>423.7494359980352</v>
       </c>
       <c r="D2" t="n">
-        <v>521.8034593030657</v>
+        <v>423.7494359980352</v>
       </c>
       <c r="E2" t="n">
-        <v>255.5772045566035</v>
+        <v>423.7494359980352</v>
       </c>
       <c r="F2" t="n">
-        <v>34.05038377637522</v>
+        <v>416.8039352488317</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0851193759198</v>
+        <v>403.8386708483764</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0851193759198</v>
+        <v>137.6124161019134</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="J2" t="n">
-        <v>50.19026732552095</v>
+        <v>49.14994660701159</v>
       </c>
       <c r="K2" t="n">
-        <v>142.9906865349512</v>
+        <v>141.9503658164427</v>
       </c>
       <c r="L2" t="n">
-        <v>295.0195743965825</v>
+        <v>293.9792536780753</v>
       </c>
       <c r="M2" t="n">
-        <v>495.850442417391</v>
+        <v>494.8101216988852</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238174</v>
+        <v>703.504451505313</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381122</v>
+        <v>888.2736487381135</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266319</v>
+        <v>1010.580993266322</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.25596879599</v>
+        <v>899.9120886341452</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.25596879599</v>
+        <v>685.4716779720328</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.25596879599</v>
+        <v>685.4716779720328</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.25596879599</v>
+        <v>423.7494359980352</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.25596879599</v>
+        <v>423.7494359980352</v>
       </c>
       <c r="X2" t="n">
-        <v>788.0297140495278</v>
+        <v>423.7494359980352</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.0297140495278</v>
+        <v>423.7494359980352</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.2016763937341</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="C3" t="n">
-        <v>429.7486471126072</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="D3" t="n">
-        <v>280.8142374513559</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5767824459004</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5767824459004</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5767824459004</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9487307741814</v>
+        <v>117.9487307741787</v>
       </c>
       <c r="K3" t="n">
-        <v>192.5098291378357</v>
+        <v>192.5098291378336</v>
       </c>
       <c r="L3" t="n">
-        <v>339.0889684539673</v>
+        <v>339.0889684539661</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4967785168093</v>
+        <v>529.4967785168092</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516404</v>
+        <v>739.3527616516413</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271648</v>
+        <v>909.1101923271667</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.02243028045</v>
+        <v>1026.022430280453</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158895</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.871862158895</v>
+        <v>905.6052437437255</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.871862158895</v>
+        <v>708.7930347737552</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.871862158895</v>
+        <v>480.6571377126131</v>
       </c>
       <c r="V3" t="n">
-        <v>858.4390331219358</v>
+        <v>480.6571377126131</v>
       </c>
       <c r="W3" t="n">
-        <v>604.2016763937341</v>
+        <v>226.4197809844115</v>
       </c>
       <c r="X3" t="n">
-        <v>604.2016763937341</v>
+        <v>226.4197809844115</v>
       </c>
       <c r="Y3" t="n">
-        <v>604.2016763937341</v>
+        <v>189.3004563959879</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.9484646849415</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="C4" t="n">
         <v>175.0122817570346</v>
@@ -4480,58 +4480,58 @@
         <v>175.0122817570346</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="K4" t="n">
-        <v>126.327239195361</v>
+        <v>126.3272391953613</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735297</v>
+        <v>316.5273535735305</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559541</v>
+        <v>527.4558292559556</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568277</v>
+        <v>738.8035136568299</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005229</v>
+        <v>918.0010123005254</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485825</v>
+        <v>1047.814747485828</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.25596879599</v>
+        <v>925.4341625632161</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.25596879599</v>
+        <v>718.6357802067803</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.25596879599</v>
+        <v>718.6357802067803</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.25596879599</v>
+        <v>657.6863208609388</v>
       </c>
       <c r="V4" t="n">
-        <v>799.5714805901031</v>
+        <v>403.001832655052</v>
       </c>
       <c r="W4" t="n">
-        <v>533.3452258436409</v>
+        <v>403.001832655052</v>
       </c>
       <c r="X4" t="n">
-        <v>343.9484646849415</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="Y4" t="n">
-        <v>343.9484646849415</v>
+        <v>175.0122817570346</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>573.7617370571243</v>
+      </c>
+      <c r="C5" t="n">
+        <v>573.7617370571243</v>
+      </c>
+      <c r="D5" t="n">
+        <v>307.3840804899463</v>
+      </c>
+      <c r="E5" t="n">
+        <v>307.3840804899463</v>
+      </c>
+      <c r="F5" t="n">
         <v>300.4385797407429</v>
       </c>
-      <c r="C5" t="n">
-        <v>300.4385797407429</v>
-      </c>
-      <c r="D5" t="n">
-        <v>300.4385797407429</v>
-      </c>
-      <c r="E5" t="n">
-        <v>300.4385797407429</v>
-      </c>
-      <c r="F5" t="n">
-        <v>34.06092317356494</v>
-      </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4565,52 +4565,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411523</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>586.7364457822812</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>320.3587892151033</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W5" t="n">
-        <v>300.4385797407429</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>300.4385797407429</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>300.4385797407429</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4644,52 +4644,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004805</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267548</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>904.2569522304912</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212814</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212814</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212814</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="V6" t="n">
-        <v>801.3675279810718</v>
+        <v>474.2580350095591</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528702</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473374</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823835</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.1499327403632</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="C7" t="n">
-        <v>171.2137498124562</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4729,46 +4729,46 @@
         <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006024</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640386</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>815.6270000897802</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>560.9425118838933</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>560.9425118838933</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>560.9425118838933</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="Y7" t="n">
-        <v>340.1499327403632</v>
+        <v>225.1168882493048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>474.7217947496364</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>474.7217947496364</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>474.7217947496364</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>474.7217947496364</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>467.776294000433</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362822</v>
@@ -4808,46 +4808,46 @@
         <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1674.463969937836</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137582</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1852.283970943245</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>2184.354406119407</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2546.85305505925</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.823040066908</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>838.1385518610207</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="11">
@@ -5039,7 +5039,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694706</v>
@@ -5069,19 +5069,19 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5261,25 +5261,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5416,19 +5416,19 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5558,7 +5558,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745235</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179081</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900012</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776654</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952723</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5674,13 +5674,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
@@ -5750,22 +5750,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,22 +6361,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258102</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1842.070412183399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.385923977512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>557.5558870561822</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>388.6197041282753</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782944</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003833</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2423.619666148774</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1187.986481927969</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>959.9969310299521</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.2043518864219</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797186</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038334</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7637,61 +7637,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>726.9555321712448</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>558.019349243338</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310022</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310022</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797667</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910801</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.56011257081</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580253</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2410.164476918741</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2190.563011941682</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1357.386127043032</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1129.396576145015</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.6039970014846</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.050829008596025</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.050829008590256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518677</v>
+        <v>60.60994937518629</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.96589850477842</v>
+        <v>99.96589850477524</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069106</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594376</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>36.58048154589973</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532767</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472413</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194547</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>85.77246603528789</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>43.26526345295264</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267405012</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333356</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>144.5956654067475</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>852339.0024515541</v>
+        <v>852339.0024515538</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>852304.2098407832</v>
+        <v>852304.209840783</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834644.592262404</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834644.592262404</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752544</v>
-      </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752545</v>
@@ -26341,19 +26341,19 @@
         <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="O2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26363,34 +26363,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163114</v>
+        <v>679693.2761163136</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389967275</v>
+        <v>373.9475389949449</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491465</v>
+        <v>68959.93717491471</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395603374</v>
+        <v>38.57632395584356</v>
       </c>
       <c r="L3" t="n">
         <v>95382.64613756971</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077616</v>
+        <v>246846.0156077611</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426732027</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.312426732027</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.312426732014</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426732016</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731994</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731984</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.31242673198</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8117.312426732037</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426731995</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="F4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426732039</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
         <v>8117.312426731985</v>
       </c>
-      <c r="K4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426731963</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731963</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426732038</v>
-      </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731984</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.8969336037</v>
+        <v>63030.89693360379</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-394314.9055060712</v>
+        <v>-394314.9055060735</v>
       </c>
       <c r="C6" t="n">
-        <v>285079.6650101108</v>
+        <v>285079.6650101126</v>
       </c>
       <c r="D6" t="n">
-        <v>-23128.8533560471</v>
+        <v>-23128.85335604676</v>
       </c>
       <c r="E6" t="n">
-        <v>-31543.99909993025</v>
+        <v>-31578.73702536599</v>
       </c>
       <c r="F6" t="n">
-        <v>475941.4425246154</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="G6" t="n">
-        <v>475941.4425246152</v>
+        <v>475906.704599179</v>
       </c>
       <c r="H6" t="n">
-        <v>475941.4425246156</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="I6" t="n">
-        <v>475941.4425246153</v>
+        <v>475906.7045991793</v>
       </c>
       <c r="J6" t="n">
-        <v>406981.5053497008</v>
+        <v>406946.767424265</v>
       </c>
       <c r="K6" t="n">
-        <v>475902.8662006595</v>
+        <v>475868.128275224</v>
       </c>
       <c r="L6" t="n">
-        <v>380558.7963870458</v>
+        <v>380524.0584616098</v>
       </c>
       <c r="M6" t="n">
-        <v>343334.1487956888</v>
+        <v>343299.4108702531</v>
       </c>
       <c r="N6" t="n">
-        <v>475941.4425246157</v>
+        <v>475906.7045991796</v>
       </c>
       <c r="O6" t="n">
-        <v>475941.4425246154</v>
+        <v>475906.7045991793</v>
       </c>
       <c r="P6" t="n">
-        <v>475941.4425246156</v>
+        <v>475906.7045991798</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.056908399927399e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726906</v>
+        <v>613.6975324726925</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989983</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726906</v>
+        <v>613.6975324726925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.357481296787455</v>
+        <v>0.3574812967857497</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025085739</v>
+        <v>0.1498878025078625</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989981</v>
+        <v>263.5639921989983</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025086015</v>
+        <v>0.1498878025078625</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989983</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025085739</v>
+        <v>0.1498878025078625</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.1698494644831</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.3663778732643</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5644931692854</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396427</v>
+        <v>50.64435824064441</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587339</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602295</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2960065554913</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>68.64723891587732</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.1671084794716</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48674643928072</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225827</v>
+        <v>43.94827785225812</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.2002655707239</v>
       </c>
       <c r="S3" t="n">
-        <v>147.164217801745</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802707</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545380905306</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>57.14208640283587</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>168.934564434765</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597229</v>
+        <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404795</v>
+        <v>15.11777503404771</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704494</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328715</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586656647723</v>
+        <v>225.9187009123892</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.95900613759352</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.20686184192471</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402054</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862882</v>
+        <v>267.950986551452</v>
       </c>
       <c r="W5" t="n">
-        <v>329.5199613377962</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642697</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.838653001052876</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.05694097045114</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>272.6367416651616</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>365.9119556497243</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>170.0858648972134</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>265.0090336922097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193762</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.168676190304566e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.168676190304566e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-6.486267768101741e-13</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.736342496736839e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>4.726754830586932e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-2.631863191373152e-12</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.689209828598085e-12</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-5.25812187936948e-12</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684181</v>
+        <v>2.467125758684189</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612438</v>
+        <v>25.26645167612446</v>
       </c>
       <c r="I2" t="n">
-        <v>95.113865811672</v>
+        <v>95.1138658116723</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611217</v>
+        <v>209.3942148611224</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262232</v>
+        <v>313.8276482262241</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635543</v>
+        <v>389.3309481635555</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745541</v>
+        <v>433.2056958745554</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364155</v>
+        <v>440.2154169364169</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351734997</v>
+        <v>415.682935173501</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059839</v>
+        <v>354.775768005985</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731065</v>
+        <v>266.4218267731074</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389454</v>
+        <v>154.9755884389458</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601584</v>
+        <v>56.21962822601601</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864001</v>
+        <v>10.79984300864004</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947345</v>
+        <v>0.1973700606947351</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32002865475258</v>
+        <v>1.320028654752584</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721571</v>
+        <v>12.74869779721575</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915681</v>
+        <v>45.44835499915695</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773041</v>
+        <v>124.7137598773045</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457269</v>
+        <v>213.1556797457276</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628354</v>
+        <v>286.6141164628363</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976163</v>
+        <v>334.4651551976174</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235668</v>
+        <v>343.3174526235679</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419438</v>
+        <v>314.0683966419448</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641133</v>
+        <v>252.0675770641141</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592942</v>
+        <v>168.5004998592948</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191898</v>
+        <v>81.95756858191923</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209286</v>
+        <v>24.51895330209294</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550966</v>
+        <v>5.320641814550983</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868439904442487</v>
+        <v>0.08684399044424898</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10666768150813</v>
+        <v>1.106667681508134</v>
       </c>
       <c r="H4" t="n">
-        <v>9.83928175013593</v>
+        <v>9.839281750135962</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753542</v>
+        <v>33.28051536753553</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262482</v>
+        <v>78.24140508262506</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606718</v>
+        <v>128.5746633606722</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943997</v>
+        <v>164.5313023944002</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840426</v>
+        <v>173.4751893840432</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166034</v>
+        <v>169.3503371166039</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735311</v>
+        <v>156.4224464735316</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707651</v>
+        <v>133.8464257707655</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337627</v>
+        <v>92.66832740337657</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672011</v>
+        <v>49.75980320672026</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410078</v>
+        <v>19.28619950410084</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625647</v>
+        <v>4.728489184625662</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862536</v>
+        <v>0.06036369171862555</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>555.1777416630686</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862119</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940696</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>512.9101366533187</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742437</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,13 +32573,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,25 +33737,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.39913934303146</v>
+        <v>28.34831033443609</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124263</v>
+        <v>93.73779718124359</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935671</v>
+        <v>153.5645331935683</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472813</v>
+        <v>202.8594626472827</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398246</v>
+        <v>210.802353339826</v>
       </c>
       <c r="O2" t="n">
-        <v>185.584723751813</v>
+        <v>186.6355527604045</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507143</v>
+        <v>123.5427722507155</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865706</v>
+        <v>44.11613689865791</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.84203171541579</v>
+        <v>97.842031715413</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136791</v>
+        <v>75.31424077136856</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829612</v>
+        <v>148.0597366829621</v>
       </c>
       <c r="M3" t="n">
-        <v>192.331121275598</v>
+        <v>192.3311212755991</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402335</v>
+        <v>211.9757405402346</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974994</v>
+        <v>171.4721521975003</v>
       </c>
       <c r="P3" t="n">
-        <v>118.093169649783</v>
+        <v>118.0931696497838</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327271</v>
+        <v>28.51872577327325</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.305171534789</v>
+        <v>106.3051715347894</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547159</v>
+        <v>192.1213276547164</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458832</v>
+        <v>213.0590663458838</v>
       </c>
       <c r="N4" t="n">
-        <v>213.482509495832</v>
+        <v>213.4825094958325</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875707</v>
+        <v>181.0075743875713</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356586</v>
+        <v>131.124985035659</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151681882</v>
+        <v>6.506284151682181</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127275</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>418.4229873015965</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>15.64270034434984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>416.6233618831944</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641936</v>
@@ -35501,7 +35501,7 @@
         <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962517</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678995</v>
@@ -35732,22 +35732,22 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>370.3138922088742</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096343</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066218</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295204</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37713,7 +37713,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060424</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409634</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191314</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191238</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
